--- a/sample-script/ReleaseNotes.xlsx
+++ b/sample-script/ReleaseNotes.xlsx
@@ -16,13 +16,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>panjun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>根据Lua脚本的需要，增加两个虚拟接口rtos.get_version和i2c.close。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>panjun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/02/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/03/02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化写日志的流程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/03/03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>panjun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加两个事件接口，init_event,destroy_events。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/03/06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正模拟GPIO时的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化显示接口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出模拟器时，销毁串口和脚本的句柄。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正一个定时器相关的问题。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -69,12 +117,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -370,27 +424,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="69.625" customWidth="1"/>
+    <col min="1" max="1" width="9.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="69.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1">
-        <v>42788</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/sample-script/ReleaseNotes.xlsx
+++ b/sample-script/ReleaseNotes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>panjun</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>修正一个定时器相关的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/03/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>panjun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加两个事件接口，set_trace。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -512,6 +524,17 @@
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
